--- a/IMKL2.x/5. visualisatie/PMKL_Handreiking-visualisatie-changelog.xlsx
+++ b/IMKL2.x/5. visualisatie/PMKL_Handreiking-visualisatie-changelog.xlsx
@@ -8,25 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjanssen\Documents\GitHub\imkl2015-review\IMKL2.x\5. visualisatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DB64F6-6F0C-444D-BB0A-22BB0C18F027}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F62935B-BED4-4CF7-9974-F3C4793F4F4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="525" yWindow="0" windowWidth="37095" windowHeight="13935" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Changelog" sheetId="1" r:id="rId1"/>
     <sheet name="Blad1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
   <si>
     <t>Datum</t>
   </si>
@@ -161,6 +156,12 @@
   </si>
   <si>
     <t>Onderdeel</t>
+  </si>
+  <si>
+    <t>IMKL-Handreiking-visualisatie_2.0io 7.2.2</t>
+  </si>
+  <si>
+    <t>Extra regels voor OverigAppurtenanceTypeIMKLValue</t>
   </si>
 </sst>
 </file>
@@ -669,11 +670,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK21"/>
+  <dimension ref="A1:AMK22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1006,6 +1007,20 @@
         <v>251</v>
       </c>
       <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="A22" s="13">
+        <v>43997</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="7">
+        <v>250</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/IMKL2.x/5. visualisatie/PMKL_Handreiking-visualisatie-changelog.xlsx
+++ b/IMKL2.x/5. visualisatie/PMKL_Handreiking-visualisatie-changelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjanssen\Documents\GitHub\imkl2015-review\IMKL2.x\5. visualisatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBAE6B7B-62CA-47D4-89AC-B405F065CDD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE86CD51-9657-472A-B73F-BCA57F89F8A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-7680" windowWidth="19440" windowHeight="15000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,16 +16,19 @@
     <sheet name="Changelog" sheetId="1" r:id="rId1"/>
     <sheet name="Blad1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
   <si>
     <t>Datum</t>
   </si>
   <si>
+    <t>Onderdeel</t>
+  </si>
+  <si>
     <t>Wijziging</t>
   </si>
   <si>
@@ -80,21 +83,63 @@
     <t>Toegevoegd ten behoeve van sld-extradetailinfo-vlak.sld</t>
   </si>
   <si>
+    <t>PMKL-Handreiking-visualisatie_2.0io 2.3.2</t>
+  </si>
+  <si>
     <t>Aanpassing beschrijving stroke-dasharray</t>
   </si>
   <si>
+    <t>PMKL-Handreiking-visualisatie_2.0io 6.5</t>
+  </si>
+  <si>
     <t>Verwijderen beschrijving omtrek</t>
   </si>
   <si>
+    <t>PMKL-Handreiking-visualisatie_2.0io 6.6</t>
+  </si>
+  <si>
     <t>Beschrijving symboolgebruik alle schaalniveaus gelijkt</t>
   </si>
   <si>
+    <t>PMKL-Handreiking-visualisatie_2.0io 6.7</t>
+  </si>
+  <si>
+    <t>PMKL-Handreiking-visualisatie_2.0io 6.8</t>
+  </si>
+  <si>
+    <t>PMKL-Handreiking-visualisatie_2.0io 9.5</t>
+  </si>
+  <si>
     <t>Pijlpunten met zelfde symbool en zelfde grootte</t>
   </si>
   <si>
+    <t>PMKL-Handreiking-visualisatie_2.0io 9.6</t>
+  </si>
+  <si>
+    <t>PMKL-Handreiking-visualisatie_2.0io 9.9</t>
+  </si>
+  <si>
+    <t>PMKL-Handreiking-visualisatie_2.0io 9.10</t>
+  </si>
+  <si>
+    <t>PMKL-Handreiking-visualisatie_2.0io 10.1</t>
+  </si>
+  <si>
     <t>ExtradetailInfo vlak en lijn onderop. Extradetailinfo symbool en puntgeometrie bovenop</t>
   </si>
   <si>
+    <t>PMKL-Handreiking-visualisatie_2.0io 7.2.2</t>
+  </si>
+  <si>
+    <t>Extra regels voor OverigAppurtenanceTypeIMKLValue</t>
+  </si>
+  <si>
+    <t>Nieuwe lijnsymbolen zoomniveau 5-13</t>
+  </si>
+  <si>
+    <t>Nieuwe vlaksymbolen zoomniveau 5-13</t>
+  </si>
+  <si>
     <t>Extra regels</t>
   </si>
   <si>
@@ -125,43 +170,10 @@
     <t>aangepast</t>
   </si>
   <si>
-    <t>Onderdeel</t>
-  </si>
-  <si>
-    <t>Extra regels voor OverigAppurtenanceTypeIMKLValue</t>
-  </si>
-  <si>
-    <t>PMKL-Handreiking-visualisatie_2.0io 2.3.2</t>
-  </si>
-  <si>
-    <t>PMKL-Handreiking-visualisatie_2.0io 6.5</t>
-  </si>
-  <si>
-    <t>PMKL-Handreiking-visualisatie_2.0io 6.6</t>
-  </si>
-  <si>
-    <t>PMKL-Handreiking-visualisatie_2.0io 6.7</t>
-  </si>
-  <si>
-    <t>PMKL-Handreiking-visualisatie_2.0io 6.8</t>
-  </si>
-  <si>
-    <t>PMKL-Handreiking-visualisatie_2.0io 9.5</t>
-  </si>
-  <si>
-    <t>PMKL-Handreiking-visualisatie_2.0io 9.6</t>
-  </si>
-  <si>
-    <t>PMKL-Handreiking-visualisatie_2.0io 9.9</t>
-  </si>
-  <si>
-    <t>PMKL-Handreiking-visualisatie_2.0io 9.10</t>
-  </si>
-  <si>
-    <t>PMKL-Handreiking-visualisatie_2.0io 10.1</t>
-  </si>
-  <si>
-    <t>PMKL-Handreiking-visualisatie_2.0io 7.2.2</t>
+    <t>drie tekstcorrecties</t>
+  </si>
+  <si>
+    <t>Tekst edits uit TCS review verwerkt</t>
   </si>
 </sst>
 </file>
@@ -180,17 +192,17 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -242,26 +254,23 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -273,18 +282,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -670,49 +674,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK22"/>
+  <dimension ref="A1:AMK25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="48.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="48.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="24" style="1" customWidth="1"/>
-    <col min="6" max="1025" width="9.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24" style="2" customWidth="1"/>
+    <col min="6" max="1025" width="9.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:9" ht="36" x14ac:dyDescent="0.2">
       <c r="A2" s="13">
         <v>43992</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="7">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6">
         <v>279</v>
       </c>
       <c r="E2" s="6"/>
@@ -722,108 +726,108 @@
         <v>43992</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="7">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6">
         <v>289</v>
       </c>
       <c r="E3" s="5"/>
-      <c r="I3" s="8"/>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9" ht="24" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <v>43992</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>289</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="I4" s="8"/>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>43992</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="7">
+        <v>9</v>
+      </c>
+      <c r="D5" s="6">
         <v>290</v>
       </c>
       <c r="E5" s="6"/>
-      <c r="I5" s="8"/>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>43992</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="7">
+        <v>11</v>
+      </c>
+      <c r="D6" s="6">
         <v>251</v>
       </c>
       <c r="E6" s="5"/>
-      <c r="I6" s="8"/>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>43992</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="7">
+        <v>13</v>
+      </c>
+      <c r="D7" s="6">
         <v>284</v>
       </c>
       <c r="E7" s="5"/>
-      <c r="I7" s="8"/>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>43992</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="7">
+        <v>15</v>
+      </c>
+      <c r="D8" s="6">
         <v>251</v>
       </c>
       <c r="E8" s="6"/>
-      <c r="I8" s="9"/>
+      <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9" ht="24" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>43992</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="7">
+        <v>7</v>
+      </c>
+      <c r="D9" s="6">
         <v>289</v>
       </c>
       <c r="E9" s="5"/>
@@ -833,12 +837,12 @@
         <v>43992</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="7">
+        <v>7</v>
+      </c>
+      <c r="D10" s="6">
         <v>289</v>
       </c>
       <c r="E10" s="5"/>
@@ -848,12 +852,12 @@
         <v>43992</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="7">
+        <v>19</v>
+      </c>
+      <c r="D11" s="6">
         <v>251</v>
       </c>
       <c r="E11" s="5"/>
@@ -863,12 +867,12 @@
         <v>43992</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="7">
+        <v>21</v>
+      </c>
+      <c r="D12" s="6">
         <v>278</v>
       </c>
       <c r="E12" s="5"/>
@@ -878,12 +882,12 @@
         <v>43992</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="7">
+        <v>23</v>
+      </c>
+      <c r="D13" s="6">
         <v>279</v>
       </c>
       <c r="E13" s="5"/>
@@ -893,12 +897,12 @@
         <v>43992</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="7">
+        <v>25</v>
+      </c>
+      <c r="D14" s="6">
         <v>284</v>
       </c>
       <c r="E14" s="5"/>
@@ -908,12 +912,12 @@
         <v>43992</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="7">
+        <v>11</v>
+      </c>
+      <c r="D15" s="6">
         <v>251</v>
       </c>
       <c r="E15" s="5"/>
@@ -923,12 +927,12 @@
         <v>43992</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="7">
+        <v>15</v>
+      </c>
+      <c r="D16" s="6">
         <v>251</v>
       </c>
       <c r="E16" s="5"/>
@@ -938,12 +942,12 @@
         <v>43992</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="7">
+        <v>29</v>
+      </c>
+      <c r="D17" s="6">
         <v>289</v>
       </c>
       <c r="E17" s="5"/>
@@ -953,12 +957,12 @@
         <v>43992</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="7">
+        <v>29</v>
+      </c>
+      <c r="D18" s="6">
         <v>289</v>
       </c>
       <c r="E18" s="5"/>
@@ -968,12 +972,12 @@
         <v>43992</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="7">
+        <v>29</v>
+      </c>
+      <c r="D19" s="6">
         <v>289</v>
       </c>
       <c r="E19" s="5"/>
@@ -983,12 +987,12 @@
         <v>43992</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="7">
+        <v>29</v>
+      </c>
+      <c r="D20" s="6">
         <v>289</v>
       </c>
       <c r="E20" s="5"/>
@@ -998,12 +1002,12 @@
         <v>43992</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="7">
+        <v>34</v>
+      </c>
+      <c r="D21" s="6">
         <v>251</v>
       </c>
       <c r="E21" s="5"/>
@@ -1013,14 +1017,55 @@
         <v>43997</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="7">
+        <v>36</v>
+      </c>
+      <c r="D22" s="6">
         <v>250</v>
       </c>
+    </row>
+    <row r="23" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="A23" s="13">
+        <v>44011</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="6">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="A24" s="13">
+        <v>44011</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="6">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="13">
+        <v>44748</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="13"/>
+      <c r="E25" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1050,45 +1095,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>24</v>
+      <c r="A1" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>24</v>
+      <c r="B3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
